--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8265333333333333</v>
+        <v>1.999699333333333</v>
       </c>
       <c r="H2">
-        <v>2.4796</v>
+        <v>5.999098</v>
       </c>
       <c r="I2">
-        <v>0.2856046655980103</v>
+        <v>0.5605459117818491</v>
       </c>
       <c r="J2">
-        <v>0.2856046655980104</v>
+        <v>0.5605459117818491</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N2">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O2">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P2">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q2">
-        <v>0.08819551484444445</v>
+        <v>0.3544107122453333</v>
       </c>
       <c r="R2">
-        <v>0.7937596336</v>
+        <v>3.189696410208</v>
       </c>
       <c r="S2">
-        <v>0.0001343236380082357</v>
+        <v>0.0002861429836070169</v>
       </c>
       <c r="T2">
-        <v>0.0001343236380082357</v>
+        <v>0.000286142983607017</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8265333333333333</v>
+        <v>1.999699333333333</v>
       </c>
       <c r="H3">
-        <v>2.4796</v>
+        <v>5.999098</v>
       </c>
       <c r="I3">
-        <v>0.2856046655980103</v>
+        <v>0.5605459117818491</v>
       </c>
       <c r="J3">
-        <v>0.2856046655980104</v>
+        <v>0.5605459117818491</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.243407</v>
       </c>
       <c r="O3">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P3">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q3">
-        <v>0.06706133302222222</v>
+        <v>0.1622469385428889</v>
       </c>
       <c r="R3">
-        <v>0.6035519972000001</v>
+        <v>1.460222446886</v>
       </c>
       <c r="S3">
-        <v>0.0001021358312507673</v>
+        <v>0.0001309944126170466</v>
       </c>
       <c r="T3">
-        <v>0.0001021358312507673</v>
+        <v>0.0001309944126170466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8265333333333333</v>
+        <v>1.999699333333333</v>
       </c>
       <c r="H4">
-        <v>2.4796</v>
+        <v>5.999098</v>
       </c>
       <c r="I4">
-        <v>0.2856046655980103</v>
+        <v>0.5605459117818491</v>
       </c>
       <c r="J4">
-        <v>0.2856046655980104</v>
+        <v>0.5605459117818491</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N4">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O4">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P4">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q4">
-        <v>47.83929611755555</v>
+        <v>548.9448675468318</v>
       </c>
       <c r="R4">
-        <v>430.553665058</v>
+        <v>4940.503807921486</v>
       </c>
       <c r="S4">
-        <v>0.07286026172189308</v>
+        <v>0.4432053456862674</v>
       </c>
       <c r="T4">
-        <v>0.0728602617218931</v>
+        <v>0.4432053456862674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8265333333333333</v>
+        <v>1.999699333333333</v>
       </c>
       <c r="H5">
-        <v>2.4796</v>
+        <v>5.999098</v>
       </c>
       <c r="I5">
-        <v>0.2856046655980103</v>
+        <v>0.5605459117818491</v>
       </c>
       <c r="J5">
-        <v>0.2856046655980104</v>
+        <v>0.5605459117818491</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N5">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O5">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P5">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q5">
-        <v>0.0544445772</v>
+        <v>0.08476325534133333</v>
       </c>
       <c r="R5">
-        <v>0.4900011948</v>
+        <v>0.762869298072</v>
       </c>
       <c r="S5">
-        <v>8.292024477914719E-05</v>
+        <v>6.843588510615597E-05</v>
       </c>
       <c r="T5">
-        <v>8.292024477914721E-05</v>
+        <v>6.843588510615597E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8265333333333333</v>
+        <v>1.999699333333333</v>
       </c>
       <c r="H6">
-        <v>2.4796</v>
+        <v>5.999098</v>
       </c>
       <c r="I6">
-        <v>0.2856046655980103</v>
+        <v>0.5605459117818491</v>
       </c>
       <c r="J6">
-        <v>0.2856046655980104</v>
+        <v>0.5605459117818491</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N6">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O6">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P6">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q6">
-        <v>139.4760791892</v>
+        <v>144.7341490280964</v>
       </c>
       <c r="R6">
-        <v>1255.2847127028</v>
+        <v>1302.607341252868</v>
       </c>
       <c r="S6">
-        <v>0.2124250241620791</v>
+        <v>0.1168549928142514</v>
       </c>
       <c r="T6">
-        <v>0.2124250241620791</v>
+        <v>0.1168549928142514</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.067443666666667</v>
+        <v>1.567714666666667</v>
       </c>
       <c r="H7">
-        <v>6.202331000000001</v>
+        <v>4.703144</v>
       </c>
       <c r="I7">
-        <v>0.7143953344019897</v>
+        <v>0.4394540882181509</v>
       </c>
       <c r="J7">
-        <v>0.7143953344019897</v>
+        <v>0.4394540882181509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N7">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O7">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P7">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q7">
-        <v>0.2206072655995556</v>
+        <v>0.2778492058026666</v>
       </c>
       <c r="R7">
-        <v>1.985465390396</v>
+        <v>2.500642852224</v>
       </c>
       <c r="S7">
-        <v>0.0003359895402690994</v>
+        <v>0.0002243290002086047</v>
       </c>
       <c r="T7">
-        <v>0.0003359895402690994</v>
+        <v>0.0002243290002086047</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.067443666666667</v>
+        <v>1.567714666666667</v>
       </c>
       <c r="H8">
-        <v>6.202331000000001</v>
+        <v>4.703144</v>
       </c>
       <c r="I8">
-        <v>0.7143953344019897</v>
+        <v>0.4394540882181509</v>
       </c>
       <c r="J8">
-        <v>0.7143953344019897</v>
+        <v>0.4394540882181509</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.243407</v>
       </c>
       <c r="O8">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P8">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q8">
-        <v>0.1677434201907778</v>
+        <v>0.1271975746231111</v>
       </c>
       <c r="R8">
-        <v>1.509690781717</v>
+        <v>1.144778171608</v>
       </c>
       <c r="S8">
-        <v>0.0002554767835043568</v>
+        <v>0.0001026963696431342</v>
       </c>
       <c r="T8">
-        <v>0.0002554767835043568</v>
+        <v>0.0001026963696431342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.067443666666667</v>
+        <v>1.567714666666667</v>
       </c>
       <c r="H9">
-        <v>6.202331000000001</v>
+        <v>4.703144</v>
       </c>
       <c r="I9">
-        <v>0.7143953344019897</v>
+        <v>0.4394540882181509</v>
       </c>
       <c r="J9">
-        <v>0.7143953344019897</v>
+        <v>0.4394540882181509</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N9">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O9">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P9">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q9">
-        <v>119.6625057783895</v>
+        <v>430.3591573489342</v>
       </c>
       <c r="R9">
-        <v>1076.962552005505</v>
+        <v>3873.232416140408</v>
       </c>
       <c r="S9">
-        <v>0.1822485319994398</v>
+        <v>0.3474619955087072</v>
       </c>
       <c r="T9">
-        <v>0.1822485319994398</v>
+        <v>0.3474619955087072</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.067443666666667</v>
+        <v>1.567714666666667</v>
       </c>
       <c r="H10">
-        <v>6.202331000000001</v>
+        <v>4.703144</v>
       </c>
       <c r="I10">
-        <v>0.7143953344019897</v>
+        <v>0.4394540882181509</v>
       </c>
       <c r="J10">
-        <v>0.7143953344019897</v>
+        <v>0.4394540882181509</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N10">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O10">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P10">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q10">
-        <v>0.136184581767</v>
+        <v>0.06645228929066667</v>
       </c>
       <c r="R10">
-        <v>1.225661235903</v>
+        <v>0.598070603616</v>
       </c>
       <c r="S10">
-        <v>0.0002074120038398503</v>
+        <v>5.365203609304379E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002074120038398503</v>
+        <v>5.365203609304379E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.067443666666667</v>
+        <v>1.567714666666667</v>
       </c>
       <c r="H11">
-        <v>6.202331000000001</v>
+        <v>4.703144</v>
       </c>
       <c r="I11">
-        <v>0.7143953344019897</v>
+        <v>0.4394540882181509</v>
       </c>
       <c r="J11">
-        <v>0.7143953344019897</v>
+        <v>0.4394540882181509</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N11">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O11">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P11">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q11">
-        <v>348.8775648143371</v>
+        <v>113.4679821194115</v>
       </c>
       <c r="R11">
-        <v>3139.898083329033</v>
+        <v>1021.211839074704</v>
       </c>
       <c r="S11">
-        <v>0.5313479240749366</v>
+        <v>0.09161141530349891</v>
       </c>
       <c r="T11">
-        <v>0.5313479240749366</v>
+        <v>0.09161141530349891</v>
       </c>
     </row>
   </sheetData>
